--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Snca-Lag3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Snca-Lag3.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.230439795802664</v>
+        <v>0.3950880000000001</v>
       </c>
       <c r="H2">
-        <v>0.230439795802664</v>
+        <v>1.185264</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.83877766564285</v>
+        <v>6.840255666666667</v>
       </c>
       <c r="N2">
-        <v>5.83877766564285</v>
+        <v>20.520767</v>
       </c>
       <c r="O2">
-        <v>0.2129651629526298</v>
+        <v>0.2326221245729483</v>
       </c>
       <c r="P2">
-        <v>0.2129651629526298</v>
+        <v>0.2326221245729483</v>
       </c>
       <c r="Q2">
-        <v>1.345486733007893</v>
+        <v>2.702502930832</v>
       </c>
       <c r="R2">
-        <v>1.345486733007893</v>
+        <v>24.322526377488</v>
       </c>
       <c r="S2">
-        <v>0.2129651629526298</v>
+        <v>0.2326221245729483</v>
       </c>
       <c r="T2">
-        <v>0.2129651629526298</v>
+        <v>0.2326221245729483</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.230439795802664</v>
+        <v>0.3950880000000001</v>
       </c>
       <c r="H3">
-        <v>0.230439795802664</v>
+        <v>1.185264</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.336610684965279</v>
+        <v>9.415322999999999</v>
       </c>
       <c r="N3">
-        <v>9.336610684965279</v>
+        <v>28.245969</v>
       </c>
       <c r="O3">
-        <v>0.3405460748486944</v>
+        <v>0.3201945287620894</v>
       </c>
       <c r="P3">
-        <v>0.3405460748486944</v>
+        <v>0.3201945287620895</v>
       </c>
       <c r="Q3">
-        <v>2.15152665973237</v>
+        <v>3.719881133424</v>
       </c>
       <c r="R3">
-        <v>2.15152665973237</v>
+        <v>33.478930200816</v>
       </c>
       <c r="S3">
-        <v>0.3405460748486944</v>
+        <v>0.3201945287620894</v>
       </c>
       <c r="T3">
-        <v>0.3405460748486944</v>
+        <v>0.3201945287620895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.230439795802664</v>
+        <v>0.3950880000000001</v>
       </c>
       <c r="H4">
-        <v>0.230439795802664</v>
+        <v>1.185264</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.10171951357991</v>
+        <v>7.720817</v>
       </c>
       <c r="N4">
-        <v>7.10171951357991</v>
+        <v>23.162451</v>
       </c>
       <c r="O4">
-        <v>0.2590300470512776</v>
+        <v>0.2625680883144773</v>
       </c>
       <c r="P4">
-        <v>0.2590300470512776</v>
+        <v>0.2625680883144773</v>
       </c>
       <c r="Q4">
-        <v>1.636518794557149</v>
+        <v>3.050402146896</v>
       </c>
       <c r="R4">
-        <v>1.636518794557149</v>
+        <v>27.453619322064</v>
       </c>
       <c r="S4">
-        <v>0.2590300470512776</v>
+        <v>0.2625680883144773</v>
       </c>
       <c r="T4">
-        <v>0.2590300470512776</v>
+        <v>0.2625680883144773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.230439795802664</v>
+        <v>0.3950880000000001</v>
       </c>
       <c r="H5">
-        <v>0.230439795802664</v>
+        <v>1.185264</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.13947795056129</v>
+        <v>5.428613333333334</v>
       </c>
       <c r="N5">
-        <v>5.13947795056129</v>
+        <v>16.28584</v>
       </c>
       <c r="O5">
-        <v>0.1874587151473981</v>
+        <v>0.1846152583504849</v>
       </c>
       <c r="P5">
-        <v>0.1874587151473981</v>
+        <v>0.1846152583504849</v>
       </c>
       <c r="Q5">
-        <v>1.184340249459638</v>
+        <v>2.14477998464</v>
       </c>
       <c r="R5">
-        <v>1.184340249459638</v>
+        <v>19.30301986176</v>
       </c>
       <c r="S5">
-        <v>0.1874587151473981</v>
+        <v>0.1846152583504849</v>
       </c>
       <c r="T5">
-        <v>0.1874587151473981</v>
+        <v>0.1846152583504849</v>
       </c>
     </row>
   </sheetData>
